--- a/TeslaChinaInsuredUnits2024.xlsx
+++ b/TeslaChinaInsuredUnits2024.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
   <si>
-    <t>Units</t>
+    <t>units</t>
   </si>
 </sst>
 </file>
@@ -66,7 +66,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -122,6 +122,19 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="11"/>
       </left>
       <right style="thin">
@@ -153,6 +166,17 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
       <right style="thin">
         <color indexed="13"/>
       </right>
@@ -206,13 +230,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -231,10 +268,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -243,19 +280,28 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1311,14 +1357,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -1328,338 +1374,391 @@
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <v>3200</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" s="10">
+      <c r="A3" s="12">
         <v>7400</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="10">
+      <c r="A4" s="12">
         <v>11700</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="10">
+      <c r="A5" s="12">
         <v>12700</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="10">
+      <c r="A6" s="12">
         <v>10600</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="10">
+      <c r="A7" s="12">
         <v>5700</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="10">
+      <c r="A8" s="12">
         <v>2600</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="10">
+      <c r="A9" s="12">
         <v>10800</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="10">
+      <c r="A10" s="12">
         <v>12500</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="10">
+      <c r="A11" s="12">
         <v>13000</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="11"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="11"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="11"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="11"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="11"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="11"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
     </row>
     <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="11"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" s="11"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="11"/>
     </row>
     <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" s="11"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
     </row>
     <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" s="11"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" s="11"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
     </row>
     <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" s="11"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
     </row>
     <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" s="11"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
     </row>
     <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" s="11"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
     </row>
     <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" s="11"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
     </row>
     <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" s="11"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
     </row>
     <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" s="11"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
     </row>
     <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" s="11"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
     </row>
     <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" s="11"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
     </row>
     <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" s="11"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="9"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
     </row>
     <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" s="11"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="9"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
     </row>
     <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" s="11"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="9"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
     </row>
     <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" s="11"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="9"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
     </row>
     <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" s="11"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="9"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
     </row>
     <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" s="11"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="9"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11"/>
     </row>
     <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" s="11"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="9"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
     </row>
     <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" s="11"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="9"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
     </row>
     <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" s="11"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="9"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="11"/>
     </row>
     <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" s="11"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="9"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
     </row>
     <row r="49" ht="20.05" customHeight="1">
-      <c r="A49" s="11"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="9"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11"/>
     </row>
     <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" s="11"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="9"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="11"/>
     </row>
     <row r="51" ht="20.05" customHeight="1">
-      <c r="A51" s="11"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="9"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
     </row>
     <row r="52" ht="20.05" customHeight="1">
-      <c r="A52" s="11"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="9"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="11"/>
     </row>
     <row r="53" ht="20.05" customHeight="1">
-      <c r="A53" s="11"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="14"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
